--- a/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="238">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -321,7 +321,7 @@
     <t>priceType</t>
   </si>
   <si>
-    <t>typeTarif</t>
+    <t>typeTarif : JDV-J36-TypeTarif-ROR</t>
   </si>
   <si>
     <t>Extension.extension:priceType.id</t>
@@ -396,7 +396,7 @@
     <t>priceUnit</t>
   </si>
   <si>
-    <t>unitePrix</t>
+    <t>unitePrix : JDV-J205-UnitePrix-ROR</t>
   </si>
   <si>
     <t>Extension.extension:priceUnit.id</t>
@@ -495,30 +495,33 @@
     <t>deliveryIncluded</t>
   </si>
   <si>
+    <t>ForfaitSocleHebergement.prestationsNonObligatoiresIncluses : JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
+  </si>
+  <si>
+    <t>Extension.extension:deliveryIncluded.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:deliveryIncluded.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:deliveryIncluded.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:deliveryIncluded.value[x]</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J206-PrestationNonObligatoireIncluse-ROR/FHIR/JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
+  </si>
+  <si>
+    <t>Extension.extension:othersDeliveryIncluded</t>
+  </si>
+  <si>
+    <t>othersDeliveryIncluded</t>
+  </si>
+  <si>
     <t>ForfaitSocleHebergement.prestationsNonObligatoiresIncluses</t>
   </si>
   <si>
-    <t>Extension.extension:deliveryIncluded.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:deliveryIncluded.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:deliveryIncluded.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:deliveryIncluded.value[x]</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J206-PrestationNonObligatoireIncluse-ROR/FHIR/JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
-  </si>
-  <si>
-    <t>Extension.extension:othersDeliveryIncluded</t>
-  </si>
-  <si>
-    <t>othersDeliveryIncluded</t>
-  </si>
-  <si>
     <t>Extension.extension:othersDeliveryIncluded.id</t>
   </si>
   <si>
@@ -537,7 +540,7 @@
     <t>residentialType</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.typeHabitation + SupplementTarifHebergement.typeHabitation</t>
+    <t>ForfaitSocleHebergement.typeHabitation + SupplementTarifHebergement.typeHabitation : JDV-J32-TypeHabitation-ROR</t>
   </si>
   <si>
     <t>Extension.extension:residentialType.id</t>
@@ -561,7 +564,7 @@
     <t>specialPrice</t>
   </si>
   <si>
-    <t>TarifAccueilDeJour+TarifAidesHumaines.conditionTarifaire + ForfaitSocleHebergement.conditionTarifaire + TarifPortageRepas.conditionTarifaire</t>
+    <t>TarifAccueilDeJour+TarifAidesHumaines.conditionTarifaire + ForfaitSocleHebergement.conditionTarifaire + TarifPortageRepas.conditionTarifaire : JDV-J39-ConditionTarifaire-ROR</t>
   </si>
   <si>
     <t>Extension.extension:specialPrice.id</t>
@@ -585,7 +588,7 @@
     <t>welcomeType</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.temporaliteAccueil + TarifDependance.temporaliteAccueil</t>
+    <t>ForfaitSocleHebergement.temporaliteAccueil + TarifDependance.temporaliteAccueil : JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
     <t>Extension.extension:welcomeType.id</t>
@@ -630,7 +633,7 @@
     <t>dependencyLevel</t>
   </si>
   <si>
-    <t>TarifDependance.groupeTarifaireDependance</t>
+    <t>TarifDependance.groupeTarifaireDependance : JDV-J27-GroupeTarifaireDependance-ROR</t>
   </si>
   <si>
     <t>Extension.extension:dependencyLevel.id</t>
@@ -675,7 +678,7 @@
     <t>managementType</t>
   </si>
   <si>
-    <t>TarifAidesHumaines.modeGestion</t>
+    <t>TarifAidesHumaines.modeGestion : JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
     <t>Extension.extension:managementType.id</t>
@@ -720,7 +723,7 @@
     <t>additionalServiceName</t>
   </si>
   <si>
-    <t>TarifPrestationSupplementaire.nomPrestationSupp</t>
+    <t>TarifPrestationSupplementaire.nomPrestationSupp : JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
   </si>
   <si>
     <t>Extension.extension:additionalServiceName.id</t>
@@ -1092,7 +1095,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="164.03515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4832,12 +4835,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>102</v>
@@ -4943,7 +4946,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>104</v>
@@ -5049,7 +5052,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
@@ -5157,7 +5160,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>114</v>
@@ -5263,13 +5266,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -5366,12 +5369,12 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>102</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>104</v>
@@ -5583,7 +5586,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>106</v>
@@ -5626,7 +5629,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -5691,7 +5694,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>114</v>
@@ -5754,7 +5757,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -5795,13 +5798,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -5898,12 +5901,12 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>102</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>104</v>
@@ -6115,7 +6118,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>106</v>
@@ -6158,7 +6161,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>114</v>
@@ -6286,7 +6289,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6327,13 +6330,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
@@ -6430,12 +6433,12 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>102</v>
@@ -6541,7 +6544,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>104</v>
@@ -6647,7 +6650,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>106</v>
@@ -6690,7 +6693,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>76</v>
@@ -6755,7 +6758,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>114</v>
@@ -6818,7 +6821,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -6859,13 +6862,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -6962,12 +6965,12 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>102</v>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>104</v>
@@ -7179,7 +7182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>106</v>
@@ -7222,7 +7225,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>114</v>
@@ -7393,13 +7396,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
@@ -7496,12 +7499,12 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>102</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>104</v>
@@ -7713,7 +7716,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>106</v>
@@ -7756,7 +7759,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>76</v>
@@ -7821,7 +7824,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>114</v>
@@ -7884,7 +7887,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -7925,13 +7928,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -8028,12 +8031,12 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>102</v>
@@ -8139,7 +8142,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>104</v>
@@ -8245,7 +8248,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>106</v>
@@ -8288,7 +8291,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -8353,7 +8356,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>114</v>
@@ -8459,13 +8462,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
@@ -8562,12 +8565,12 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>102</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>104</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>106</v>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>114</v>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -8991,13 +8994,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9094,12 +9097,12 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>102</v>
@@ -9205,7 +9208,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>104</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>106</v>
@@ -9354,7 +9357,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>76</v>
@@ -9419,7 +9422,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>114</v>
@@ -9525,13 +9528,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -9628,12 +9631,12 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>102</v>
@@ -9739,7 +9742,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>104</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>106</v>
@@ -9888,7 +9891,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>76</v>
@@ -9953,7 +9956,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>114</v>
@@ -10191,7 +10194,7 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>116</v>

--- a/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
